--- a/biology/Zoologie/Fornicatus/Fornicatus.xlsx
+++ b/biology/Zoologie/Fornicatus/Fornicatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fornicatus austriacus
 Fornicatus est un genre éteint de requins Carcharhiniformes qui a vécu lors du Crétacé inférieur. 
-Une seule espèce est connue, Fornicatus austriacus, nommée par Iris Fuchs en 2018[1].
-De fornicatus, a, um, terme latin qui signifie forniqué, c'est-à-dire arqué, courbé[2]. 
+Une seule espèce est connue, Fornicatus austriacus, nommée par Iris Fuchs en 2018.
+De fornicatus, a, um, terme latin qui signifie forniqué, c'est-à-dire arqué, courbé. 
 </t>
         </is>
       </c>
@@ -514,10 +526,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses restes fossiles ont été mis au jour en Autriche. 
-Il est proche du genre Altusmirus[1].
+Il est proche du genre Altusmirus.
 </t>
         </is>
       </c>
